--- a/blog_021a_airports_sealevel/Final Results/Active airports threatened by 0.5m SLR.xlsx
+++ b/blog_021a_airports_sealevel/Final Results/Active airports threatened by 0.5m SLR.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noah.maghsadi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.huang\OneDrive - World Resources Institute\Desktop\Github\Resource Watch\blog-analysis\blog_021a_airports_sealevel\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DDA565-F599-4AE9-BF59-2FC2E2900C41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F8DDA565-F599-4AE9-BF59-2FC2E2900C41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DFDF8790-48BF-41F8-AF81-32F42506061E}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53280" yWindow="1380" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airports_1m_altitude_threaten" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Airports_1m_altitude_threaten!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Airports_1m_altitude_threaten!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1144,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>241</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>220</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>233</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>158</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>163</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>178</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2194,7 +2194,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{BA4C0F71-7CBF-48F7-BF27-AF39CA76626E}">
+  <autoFilter ref="A1:F45" xr:uid="{BA4C0F71-7CBF-48F7-BF27-AF39CA76626E}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Asia"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
       <sortCondition ref="F1"/>
     </sortState>

--- a/blog_021a_airports_sealevel/Final Results/Active airports threatened by 0.5m SLR.xlsx
+++ b/blog_021a_airports_sealevel/Final Results/Active airports threatened by 0.5m SLR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.huang\OneDrive - World Resources Institute\Desktop\Github\Resource Watch\blog-analysis\blog_021a_airports_sealevel\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F8DDA565-F599-4AE9-BF59-2FC2E2900C41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DFDF8790-48BF-41F8-AF81-32F42506061E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F8DDA565-F599-4AE9-BF59-2FC2E2900C41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B0DAD9BB-ECC6-4870-8D34-4758EFBC3ACC}"/>
   <bookViews>
-    <workbookView xWindow="53280" yWindow="1380" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1425" windowWidth="16845" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airports_1m_altitude_threaten" sheetId="1" r:id="rId1"/>
@@ -1144,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>241</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>220</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>233</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>158</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>163</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>178</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2195,11 +2195,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F45" xr:uid="{BA4C0F71-7CBF-48F7-BF27-AF39CA76626E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Asia"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
       <sortCondition ref="F1"/>
     </sortState>
